--- a/files/caminhos_impressoras.xlsx
+++ b/files/caminhos_impressoras.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avsj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avsj\iCloudDrive\01.Antonio\01.Projetos\01.github\portal_impressoras\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E501768-6D29-47A9-BDE5-DF3AB80F5B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B065C64-EAA7-4A03-ABCD-2E8379643CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E3EE0B40-FED7-4A26-BC40-99782CCCB964}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="177">
   <si>
     <t>csc-adm-frenteverso-sp5200s</t>
   </si>
@@ -523,13 +523,58 @@
   </si>
   <si>
     <t>192.0.0.205</t>
+  </si>
+  <si>
+    <t>Almoxarifado Pigmento</t>
+  </si>
+  <si>
+    <t>Almoxarifado Pigmento - Sankhya": "\\\\192.0.0.61\\mln-almoxpigmento-sankhya-zebrazm400</t>
+  </si>
+  <si>
+    <t>192.0.6.17</t>
+  </si>
+  <si>
+    <t>Fisico Quimico</t>
+  </si>
+  <si>
+    <t>Fisico Quimico - Sankhya": "\\\\192.0.0.61\\mln-fisicoquimico-sankhyal-zebrazt411</t>
+  </si>
+  <si>
+    <t>192.0.0.93</t>
+  </si>
+  <si>
+    <t>192.0.7.63</t>
+  </si>
+  <si>
+    <t>Almoxarifado Quimico": "\\\\192.0.0.61\\mln-almoxquimica-preto-brother8157</t>
+  </si>
+  <si>
+    <t>Almoxarifado Quimico - Etiquetas": "\\\\192.0.0.61\\mln-almoxquimica-etiquetas-zebrazm400</t>
+  </si>
+  <si>
+    <t>192.0.7.49</t>
+  </si>
+  <si>
+    <t>Almoxarifado Quimico</t>
+  </si>
+  <si>
+    <t>Almoxarifado Rótulos</t>
+  </si>
+  <si>
+    <t>Almoxarifado Rotulos": "\\\\192.0.0.61\\mln-almoxrotulos-preto-b400v4ps</t>
+  </si>
+  <si>
+    <t>Almoxarifado Rotulos - Sankhya": "\\\\192.0.0.61\\mln-almoxrotulos-sankhya-zebrazt410</t>
+  </si>
+  <si>
+    <t>mln-etiquetas-corpore05-zebrazt411</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,6 +604,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -662,9 +714,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -673,6 +722,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -683,29 +753,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1342,99 +1394,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C09A86-948A-47B6-824F-5A88151A6BAA}">
   <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="G24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36:K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="73.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="75" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="4"/>
-    <col min="16" max="16" width="46.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="46.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="87.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="73.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="75" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="3"/>
+    <col min="16" max="16" width="46.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="46.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="J1" s="15" t="s">
+      <c r="H1" s="16"/>
+      <c r="J1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="M1" s="7" t="s">
+      <c r="K1" s="16"/>
+      <c r="M1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="7"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>94</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>94</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>94</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1442,31 +1494,31 @@
       <c r="A4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>125</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>124</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>138</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1474,139 +1526,139 @@
       <c r="A5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>108</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>127</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>137</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="5" t="s">
+      <c r="J7" s="12"/>
+      <c r="K7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>149</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>148</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1614,30 +1666,30 @@
       <c r="A10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>52</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="5" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1645,23 +1697,23 @@
       <c r="A11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="4" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1669,73 +1721,73 @@
       <c r="A12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>110</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>130</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>112</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="5" t="s">
+      <c r="M14" s="10"/>
+      <c r="N14" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1743,24 +1795,24 @@
       <c r="A15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="5" t="s">
+      <c r="M15" s="10"/>
+      <c r="N15" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1768,23 +1820,23 @@
       <c r="A16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>102</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="5" t="s">
+      <c r="G16" s="10"/>
+      <c r="H16" s="4" t="s">
         <v>49</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="4" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1792,79 +1844,79 @@
       <c r="A17" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="5" t="s">
+      <c r="G17" s="10"/>
+      <c r="H17" s="4" t="s">
         <v>50</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="5" t="s">
+      <c r="G18" s="10"/>
+      <c r="H18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>115</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1872,43 +1924,40 @@
       <c r="A21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>123</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1916,122 +1965,110 @@
       <c r="A23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="5" t="s">
+      <c r="G23" s="10"/>
+      <c r="H23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>117</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>118</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>116</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="5" t="s">
+      <c r="G28" s="10"/>
+      <c r="H28" s="4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2039,243 +2076,217 @@
       <c r="A29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="5" t="s">
+      <c r="G29" s="10"/>
+      <c r="H29" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="5" t="s">
+      <c r="G30" s="10"/>
+      <c r="H30" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="5" t="s">
+      <c r="G31" s="10"/>
+      <c r="H31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D32" s="3"/>
-      <c r="E32" s="5" t="s">
+      <c r="D32" s="10"/>
+      <c r="E32" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="M32" s="5" t="s">
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D33" s="10"/>
+      <c r="E33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G35" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G36" s="10"/>
+      <c r="H36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G37" s="10"/>
+      <c r="H37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D33" s="3"/>
-      <c r="E33" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="M33" s="5" t="s">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G38" s="10"/>
+      <c r="H38" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="M34" s="5" t="s">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G39" s="10"/>
+      <c r="H39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G35" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G36" s="3"/>
-      <c r="H36" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G37" s="3"/>
-      <c r="H37" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G38" s="3"/>
-      <c r="H38" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G39" s="3"/>
-      <c r="H39" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J40" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G41" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="K41" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J41" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G44" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K46" s="17"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G47" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="4" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2283,13 +2294,13 @@
       <c r="G49" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H49" s="5"/>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G50" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2297,7 +2308,7 @@
       <c r="G51" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="4" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2305,7 +2316,7 @@
       <c r="G52" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="4" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2313,348 +2324,517 @@
       <c r="G53" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="4" t="s">
         <v>81</v>
       </c>
     </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G59" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G61" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G62" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="4" t="s">
+      <c r="G64" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="s">
+      <c r="G65" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="4" t="s">
+      <c r="G66" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="4" t="s">
+      <c r="G67" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="4" t="s">
+      <c r="G68" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="4" t="s">
+      <c r="G69" s="10"/>
+      <c r="H69" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
+      <c r="G70" s="10"/>
+      <c r="H70" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="4" t="s">
+      <c r="G71" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="4" t="s">
+      <c r="G72" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="4" t="s">
+      <c r="G73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="4" t="s">
+      <c r="G74" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="4" t="s">
+      <c r="G75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="4" t="s">
+      <c r="G76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="4" t="s">
+      <c r="G77" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H77" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="4" t="s">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="4" t="s">
+      <c r="H79" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="4" t="s">
+      <c r="H80" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="4" t="s">
+      <c r="H81" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="4" t="s">
+      <c r="H82" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="4" t="s">
+      <c r="H83" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="4" t="s">
+      <c r="H84" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="4" t="s">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="4" t="s">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="4" t="s">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="4" t="s">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="4" t="s">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="4" t="s">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="4" t="s">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="4" t="s">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="4" t="s">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="4" t="s">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="4" t="s">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="3" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G6:G11"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
+  <mergeCells count="25">
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="G1:H1"/>
@@ -2662,13 +2842,20 @@
     <mergeCell ref="G15:G18"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="G27:G31"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A2:B2"/>
     <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G6:G11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>